--- a/DATASET FINAL - KELOMPOK 1.xlsx
+++ b/DATASET FINAL - KELOMPOK 1.xlsx
@@ -456,7 +456,7 @@
     <numFmt numFmtId="177" formatCode="d\-mmmm\-yy"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,31 +511,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1043,19 +1023,31 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,130 +1056,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1211,26 +1191,26 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,10 +1535,10 @@
   <sheetPr/>
   <dimension ref="A1:AZ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE13" sqref="AE13"/>
+      <selection pane="bottomLeft" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1584,7 +1564,7 @@
     <col min="28" max="28" width="9" customWidth="1"/>
     <col min="30" max="30" width="11.6666666666667" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="33" max="44" width="9" hidden="1" customWidth="1"/>
+    <col min="33" max="44" width="9" customWidth="1"/>
     <col min="48" max="48" width="15.2190476190476" customWidth="1"/>
     <col min="49" max="49" width="11.3333333333333" customWidth="1"/>
     <col min="51" max="51" width="12.3333333333333" customWidth="1"/>
